--- a/data/pca/factorExposure/factorExposure_2011-08-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +735,66 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.01953072160571647</v>
+        <v>0.01679406345506421</v>
       </c>
       <c r="C2">
-        <v>-0.0103449614426962</v>
+        <v>-0.007300931122590438</v>
       </c>
       <c r="D2">
-        <v>0.04205997562770782</v>
+        <v>-0.02636720383045804</v>
       </c>
       <c r="E2">
-        <v>-0.06750186773392387</v>
+        <v>-0.03716916462296719</v>
       </c>
       <c r="F2">
-        <v>0.00588305737853743</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.02167178360550799</v>
+      </c>
+      <c r="G2">
+        <v>-0.01801841350098981</v>
+      </c>
+      <c r="H2">
+        <v>0.01595497742703399</v>
+      </c>
+      <c r="I2">
+        <v>0.005832656481506679</v>
+      </c>
+      <c r="J2">
+        <v>-0.03093457519617383</v>
+      </c>
+      <c r="K2">
+        <v>0.07789597005665211</v>
+      </c>
+      <c r="L2">
+        <v>-0.01685100216311304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +811,66 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.07489450570937842</v>
+        <v>0.09207267601653416</v>
       </c>
       <c r="C4">
-        <v>-0.04061044532067796</v>
+        <v>-0.05515442517882041</v>
       </c>
       <c r="D4">
-        <v>0.06301812407923998</v>
+        <v>-0.02720159515008281</v>
       </c>
       <c r="E4">
-        <v>-0.02205458245179778</v>
+        <v>-0.03424591949814976</v>
       </c>
       <c r="F4">
-        <v>0.03169309368528896</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.08330775484183536</v>
+      </c>
+      <c r="G4">
+        <v>-0.05220718729352639</v>
+      </c>
+      <c r="H4">
+        <v>0.002120429874188297</v>
+      </c>
+      <c r="I4">
+        <v>-0.08145640052630429</v>
+      </c>
+      <c r="J4">
+        <v>0.009454160967455142</v>
+      </c>
+      <c r="K4">
+        <v>-0.05470496993210671</v>
+      </c>
+      <c r="L4">
+        <v>-0.006709179284815374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +887,446 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.1208231712824599</v>
+        <v>0.1300208739735944</v>
       </c>
       <c r="C6">
-        <v>5.054739330282733e-05</v>
+        <v>-0.02105431928330895</v>
       </c>
       <c r="D6">
-        <v>0.05775181353165479</v>
+        <v>-0.06118053586125708</v>
       </c>
       <c r="E6">
-        <v>-0.07415845714130763</v>
+        <v>-0.01604008269448171</v>
       </c>
       <c r="F6">
-        <v>0.04881730139179025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.05602094054629646</v>
+      </c>
+      <c r="G6">
+        <v>-0.05241904160371302</v>
+      </c>
+      <c r="H6">
+        <v>-0.1614230405071776</v>
+      </c>
+      <c r="I6">
+        <v>-0.08157679957646412</v>
+      </c>
+      <c r="J6">
+        <v>0.4536168545912816</v>
+      </c>
+      <c r="K6">
+        <v>-0.001622205506025636</v>
+      </c>
+      <c r="L6">
+        <v>0.01106279728012208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.06790362693138574</v>
+        <v>0.06851488302803697</v>
       </c>
       <c r="C7">
-        <v>-0.01022396755837046</v>
+        <v>-0.05079740023281002</v>
       </c>
       <c r="D7">
-        <v>0.05228751721025265</v>
+        <v>-0.04068997841704861</v>
       </c>
       <c r="E7">
-        <v>-0.05473688013538746</v>
+        <v>-0.03601960851238886</v>
       </c>
       <c r="F7">
-        <v>0.009074761342325864</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.04054033464085898</v>
+      </c>
+      <c r="G7">
+        <v>0.005325629028267692</v>
+      </c>
+      <c r="H7">
+        <v>-0.003381927219999971</v>
+      </c>
+      <c r="I7">
+        <v>-0.03013454553359996</v>
+      </c>
+      <c r="J7">
+        <v>-0.06712260901457599</v>
+      </c>
+      <c r="K7">
+        <v>-0.0531122785040558</v>
+      </c>
+      <c r="L7">
+        <v>-0.01865099080980286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.03316523712130533</v>
+        <v>0.03728803883602193</v>
       </c>
       <c r="C8">
-        <v>-0.03722767042111132</v>
+        <v>-0.01522693436245393</v>
       </c>
       <c r="D8">
-        <v>-0.00936370092542552</v>
+        <v>0.01402978845820501</v>
       </c>
       <c r="E8">
-        <v>-0.05492939388527789</v>
+        <v>-0.06453418040177071</v>
       </c>
       <c r="F8">
-        <v>0.0358642836501171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.0225630785118934</v>
+      </c>
+      <c r="G8">
+        <v>-0.06012927596684786</v>
+      </c>
+      <c r="H8">
+        <v>-0.02564615532422954</v>
+      </c>
+      <c r="I8">
+        <v>-0.1015330280077988</v>
+      </c>
+      <c r="J8">
+        <v>-0.006108637298339594</v>
+      </c>
+      <c r="K8">
+        <v>-0.05692695725408824</v>
+      </c>
+      <c r="L8">
+        <v>0.01808549596623348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.07557136705465797</v>
+        <v>0.08432569489834661</v>
       </c>
       <c r="C9">
-        <v>-0.05162561476497152</v>
+        <v>-0.05396536972057827</v>
       </c>
       <c r="D9">
-        <v>0.05971641546121113</v>
+        <v>-0.02649834657851543</v>
       </c>
       <c r="E9">
-        <v>-0.0258103512845115</v>
+        <v>-0.02536701634947629</v>
       </c>
       <c r="F9">
-        <v>0.01892357123198362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.06431354560120117</v>
+      </c>
+      <c r="G9">
+        <v>-0.05724624962135159</v>
+      </c>
+      <c r="H9">
+        <v>-0.001377878725073929</v>
+      </c>
+      <c r="I9">
+        <v>-0.09033533653315305</v>
+      </c>
+      <c r="J9">
+        <v>0.0004945298727861687</v>
+      </c>
+      <c r="K9">
+        <v>-0.03549732673969803</v>
+      </c>
+      <c r="L9">
+        <v>0.01844717063830098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.02644572830545144</v>
+        <v>0.08378579334314053</v>
       </c>
       <c r="C10">
-        <v>0.1459983356761647</v>
+        <v>0.1838305818425817</v>
       </c>
       <c r="D10">
-        <v>-0.03377901920422849</v>
+        <v>-7.893118162817591e-05</v>
       </c>
       <c r="E10">
-        <v>-0.07045876542175748</v>
+        <v>-0.04920224518531562</v>
       </c>
       <c r="F10">
-        <v>0.04320533661382116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.03350982738291648</v>
+      </c>
+      <c r="G10">
+        <v>0.03981535215043126</v>
+      </c>
+      <c r="H10">
+        <v>-0.01071112932109583</v>
+      </c>
+      <c r="I10">
+        <v>0.03675580404628334</v>
+      </c>
+      <c r="J10">
+        <v>-0.02024074829867414</v>
+      </c>
+      <c r="K10">
+        <v>0.02639344535999995</v>
+      </c>
+      <c r="L10">
+        <v>-0.03199408445624102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.07021500971817839</v>
+        <v>0.07101436828533589</v>
       </c>
       <c r="C11">
-        <v>-0.05375973465339554</v>
+        <v>-0.05857456661839444</v>
       </c>
       <c r="D11">
-        <v>0.05302154138216926</v>
+        <v>-0.03032014213166579</v>
       </c>
       <c r="E11">
-        <v>-0.03554365435792323</v>
+        <v>-0.01721665268393541</v>
       </c>
       <c r="F11">
-        <v>-0.008018862748457131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03006011969188109</v>
+      </c>
+      <c r="G11">
+        <v>-0.07696505575132809</v>
+      </c>
+      <c r="H11">
+        <v>0.005067960556504705</v>
+      </c>
+      <c r="I11">
+        <v>-0.05375758235304594</v>
+      </c>
+      <c r="J11">
+        <v>-0.07061475238916722</v>
+      </c>
+      <c r="K11">
+        <v>0.03338566779341958</v>
+      </c>
+      <c r="L11">
+        <v>0.02364231532377974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.06544688544495615</v>
+        <v>0.06964886706955488</v>
       </c>
       <c r="C12">
-        <v>-0.03574909865238657</v>
+        <v>-0.04787753028184674</v>
       </c>
       <c r="D12">
-        <v>0.04794699508761931</v>
+        <v>-0.0153228117075726</v>
       </c>
       <c r="E12">
-        <v>-0.0218544925979259</v>
+        <v>-0.01251671090514655</v>
       </c>
       <c r="F12">
-        <v>0.009834410983441379</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.03733578186033413</v>
+      </c>
+      <c r="G12">
+        <v>-0.06762494787608099</v>
+      </c>
+      <c r="H12">
+        <v>-0.004199985596037179</v>
+      </c>
+      <c r="I12">
+        <v>-0.0807640698246951</v>
+      </c>
+      <c r="J12">
+        <v>-0.06466904479970396</v>
+      </c>
+      <c r="K12">
+        <v>0.01410915031088617</v>
+      </c>
+      <c r="L12">
+        <v>-0.01136442795342556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.07528243629650444</v>
+        <v>0.06408562330540928</v>
       </c>
       <c r="C13">
-        <v>-0.02472512431513245</v>
+        <v>-0.03959286785914885</v>
       </c>
       <c r="D13">
-        <v>0.02146493188228572</v>
+        <v>0.01742251249678395</v>
       </c>
       <c r="E13">
-        <v>-0.02522375183863207</v>
+        <v>-0.02533870900177271</v>
       </c>
       <c r="F13">
-        <v>0.02123276467660406</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02039353856050215</v>
+      </c>
+      <c r="G13">
+        <v>-0.02686013987027617</v>
+      </c>
+      <c r="H13">
+        <v>-0.001161323566915305</v>
+      </c>
+      <c r="I13">
+        <v>-0.07281567535730095</v>
+      </c>
+      <c r="J13">
+        <v>-0.03294219107952502</v>
+      </c>
+      <c r="K13">
+        <v>-0.09938003507781988</v>
+      </c>
+      <c r="L13">
+        <v>0.0007700968485562488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.03583534161992186</v>
+        <v>0.04387126363140025</v>
       </c>
       <c r="C14">
-        <v>0.002938105832740362</v>
+        <v>-0.01417260772797278</v>
       </c>
       <c r="D14">
-        <v>0.03906589658187801</v>
+        <v>-0.02586247707420063</v>
       </c>
       <c r="E14">
-        <v>-0.007338255939946177</v>
+        <v>-0.003615372580879062</v>
       </c>
       <c r="F14">
-        <v>0.002747269138280526</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.04221275063708448</v>
+      </c>
+      <c r="G14">
+        <v>-0.03873117482782334</v>
+      </c>
+      <c r="H14">
+        <v>0.03655125461779617</v>
+      </c>
+      <c r="I14">
+        <v>-0.06301326807820298</v>
+      </c>
+      <c r="J14">
+        <v>0.009774524699231762</v>
+      </c>
+      <c r="K14">
+        <v>-0.05400034829032776</v>
+      </c>
+      <c r="L14">
+        <v>0.02752852792415186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.05323630672939875</v>
+        <v>0.04120829215224129</v>
       </c>
       <c r="C15">
-        <v>-0.009599909384320473</v>
+        <v>-0.01685662686382659</v>
       </c>
       <c r="D15">
-        <v>0.008058477759203743</v>
+        <v>0.01900003236387882</v>
       </c>
       <c r="E15">
-        <v>-0.006537961806735858</v>
+        <v>0.00166772664626445</v>
       </c>
       <c r="F15">
-        <v>0.03420430460615673</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.02431952531131923</v>
+      </c>
+      <c r="G15">
+        <v>-0.01489111111128501</v>
+      </c>
+      <c r="H15">
+        <v>0.005823278747338103</v>
+      </c>
+      <c r="I15">
+        <v>-0.0319279057611849</v>
+      </c>
+      <c r="J15">
+        <v>0.02810386661966104</v>
+      </c>
+      <c r="K15">
+        <v>-0.0724265425444984</v>
+      </c>
+      <c r="L15">
+        <v>0.01185602780351469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.05629703250483861</v>
+        <v>0.07033539079385293</v>
       </c>
       <c r="C16">
-        <v>-0.05190171594037855</v>
+        <v>-0.0594199344598999</v>
       </c>
       <c r="D16">
-        <v>0.04425746807195346</v>
+        <v>-0.02200632439965834</v>
       </c>
       <c r="E16">
-        <v>-0.01979458509012667</v>
+        <v>-0.01304970417713817</v>
       </c>
       <c r="F16">
-        <v>0.02307884007658078</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.04301259003046221</v>
+      </c>
+      <c r="G16">
+        <v>-0.05660528061780223</v>
+      </c>
+      <c r="H16">
+        <v>0.01028805150445746</v>
+      </c>
+      <c r="I16">
+        <v>-0.05384633977859175</v>
+      </c>
+      <c r="J16">
+        <v>-0.05251556924348292</v>
+      </c>
+      <c r="K16">
+        <v>0.01699366372646083</v>
+      </c>
+      <c r="L16">
+        <v>0.0233465775806431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1343,28 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1381,28 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1419,294 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>0.06092070698219897</v>
+        <v>0.05540198011294344</v>
       </c>
       <c r="C20">
-        <v>-0.04424947196198634</v>
+        <v>-0.03975987606466436</v>
       </c>
       <c r="D20">
-        <v>0.02066096368742824</v>
+        <v>-0.0106709718081397</v>
       </c>
       <c r="E20">
-        <v>-0.03069585170261104</v>
+        <v>-0.02337411160865856</v>
       </c>
       <c r="F20">
-        <v>0.0154783882091785</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01021992319368536</v>
+      </c>
+      <c r="G20">
+        <v>-0.04773535008142417</v>
+      </c>
+      <c r="H20">
+        <v>0.01889993490028536</v>
+      </c>
+      <c r="I20">
+        <v>-0.1146837318058587</v>
+      </c>
+      <c r="J20">
+        <v>-0.0374837751026344</v>
+      </c>
+      <c r="K20">
+        <v>-0.03292767374326352</v>
+      </c>
+      <c r="L20">
+        <v>-0.02140287110300134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.03902198272031571</v>
+        <v>0.02853957935941344</v>
       </c>
       <c r="C21">
-        <v>-0.03122427991175965</v>
+        <v>-0.02174898677627349</v>
       </c>
       <c r="D21">
-        <v>-0.020205355878906</v>
+        <v>0.0374011723067962</v>
       </c>
       <c r="E21">
-        <v>-0.01185328956326318</v>
+        <v>-0.01879446178619211</v>
       </c>
       <c r="F21">
-        <v>0.04810911010902764</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01237002849025847</v>
+      </c>
+      <c r="G21">
+        <v>-0.008136350850484354</v>
+      </c>
+      <c r="H21">
+        <v>-0.06346420409112519</v>
+      </c>
+      <c r="I21">
+        <v>-0.05949619328768907</v>
+      </c>
+      <c r="J21">
+        <v>0.04501344300771153</v>
+      </c>
+      <c r="K21">
+        <v>-0.0533474834814688</v>
+      </c>
+      <c r="L21">
+        <v>0.01678323049832575</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.1137389690628726</v>
+        <v>0.08633459845128094</v>
       </c>
       <c r="C22">
-        <v>-0.1260820045691124</v>
+        <v>-0.09446214770053651</v>
       </c>
       <c r="D22">
-        <v>-0.02444080544715403</v>
+        <v>0.4328849490025253</v>
       </c>
       <c r="E22">
-        <v>0.02209930395028527</v>
+        <v>-0.1355427042500461</v>
       </c>
       <c r="F22">
-        <v>0.4429251827414603</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.366103588402073</v>
+      </c>
+      <c r="G22">
+        <v>0.2592510683168278</v>
+      </c>
+      <c r="H22">
+        <v>0.00366764543538044</v>
+      </c>
+      <c r="I22">
+        <v>0.1964693829566138</v>
+      </c>
+      <c r="J22">
+        <v>0.04173473271436463</v>
+      </c>
+      <c r="K22">
+        <v>0.05156656138924987</v>
+      </c>
+      <c r="L22">
+        <v>-0.08736399459981244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.1147706814289307</v>
+        <v>0.08727532143016062</v>
       </c>
       <c r="C23">
-        <v>-0.1251582834759644</v>
+        <v>-0.09488815217514433</v>
       </c>
       <c r="D23">
-        <v>-0.02250958518115193</v>
+        <v>0.4335023373488798</v>
       </c>
       <c r="E23">
-        <v>0.02108803815362814</v>
+        <v>-0.1367754723604678</v>
       </c>
       <c r="F23">
-        <v>0.4446627823552081</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.3705446583297275</v>
+      </c>
+      <c r="G23">
+        <v>0.2538929286909551</v>
+      </c>
+      <c r="H23">
+        <v>0.004460770300181302</v>
+      </c>
+      <c r="I23">
+        <v>0.1968044705516021</v>
+      </c>
+      <c r="J23">
+        <v>0.04786163752552135</v>
+      </c>
+      <c r="K23">
+        <v>0.05302849359507063</v>
+      </c>
+      <c r="L23">
+        <v>-0.08563436742892573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.07956779229880145</v>
+        <v>0.0796067242047971</v>
       </c>
       <c r="C24">
-        <v>-0.04753498021298984</v>
+        <v>-0.06029378505338874</v>
       </c>
       <c r="D24">
-        <v>0.04639955199776657</v>
+        <v>-0.01451339799356003</v>
       </c>
       <c r="E24">
-        <v>-0.03926077816902099</v>
+        <v>-0.02307113133180145</v>
       </c>
       <c r="F24">
-        <v>0.02574824323416235</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.04612127631771211</v>
+      </c>
+      <c r="G24">
+        <v>-0.07585494997341886</v>
+      </c>
+      <c r="H24">
+        <v>-0.005595380703078868</v>
+      </c>
+      <c r="I24">
+        <v>-0.06541425001229147</v>
+      </c>
+      <c r="J24">
+        <v>-0.04942479638827017</v>
+      </c>
+      <c r="K24">
+        <v>0.02202537800479525</v>
+      </c>
+      <c r="L24">
+        <v>0.006591897116434099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>0.0728365177957726</v>
+        <v>0.07525674029700169</v>
       </c>
       <c r="C25">
-        <v>-0.03012897751801483</v>
+        <v>-0.0397393157448421</v>
       </c>
       <c r="D25">
-        <v>0.05124969836079789</v>
+        <v>-0.02449121681372011</v>
       </c>
       <c r="E25">
-        <v>-0.04854626629449775</v>
+        <v>-0.02204284197238858</v>
       </c>
       <c r="F25">
-        <v>0.04165328017585919</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.05113345610255876</v>
+      </c>
+      <c r="G25">
+        <v>-0.07265117772149612</v>
+      </c>
+      <c r="H25">
+        <v>0.01405600359817724</v>
+      </c>
+      <c r="I25">
+        <v>-0.08204800031411821</v>
+      </c>
+      <c r="J25">
+        <v>-0.0554599703723714</v>
+      </c>
+      <c r="K25">
+        <v>0.037940561457408</v>
+      </c>
+      <c r="L25">
+        <v>0.009290190264268776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.05285757133631083</v>
+        <v>0.04472196218918858</v>
       </c>
       <c r="C26">
-        <v>-0.01870123166360398</v>
+        <v>-0.02401894790765897</v>
       </c>
       <c r="D26">
-        <v>0.006565598218748143</v>
+        <v>0.01943794203002785</v>
       </c>
       <c r="E26">
-        <v>-0.03488871896745124</v>
+        <v>-0.009666855896172251</v>
       </c>
       <c r="F26">
-        <v>-0.01770365758074602</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01185368298098058</v>
+      </c>
+      <c r="G26">
+        <v>-0.01973197597719346</v>
+      </c>
+      <c r="H26">
+        <v>0.001404625255886287</v>
+      </c>
+      <c r="I26">
+        <v>-0.0351959970470825</v>
+      </c>
+      <c r="J26">
+        <v>0.007067439811807152</v>
+      </c>
+      <c r="K26">
+        <v>-0.1275339781202394</v>
+      </c>
+      <c r="L26">
+        <v>0.03796347188962738</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1723,370 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.06451919335189767</v>
+        <v>0.1075865117535138</v>
       </c>
       <c r="C28">
-        <v>0.2923659901983368</v>
+        <v>0.2973666089864683</v>
       </c>
       <c r="D28">
-        <v>-0.06555444436029277</v>
+        <v>0.02519942492062285</v>
       </c>
       <c r="E28">
-        <v>-0.08003916744790593</v>
+        <v>-0.0368705328680826</v>
       </c>
       <c r="F28">
-        <v>-0.004898179701269351</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.001634593268236838</v>
+      </c>
+      <c r="G28">
+        <v>0.0008486580569435594</v>
+      </c>
+      <c r="H28">
+        <v>-0.02999554569026425</v>
+      </c>
+      <c r="I28">
+        <v>0.02938266886740185</v>
+      </c>
+      <c r="J28">
+        <v>0.008756843068095736</v>
+      </c>
+      <c r="K28">
+        <v>-0.06945559603761216</v>
+      </c>
+      <c r="L28">
+        <v>0.01481452498392014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>0.05603384268407775</v>
+        <v>0.05149076498936227</v>
       </c>
       <c r="C29">
-        <v>0.0009639419268870458</v>
+        <v>-0.01778713413021266</v>
       </c>
       <c r="D29">
-        <v>0.02776251757874354</v>
+        <v>-0.007782391672807966</v>
       </c>
       <c r="E29">
-        <v>-0.01781650206258165</v>
+        <v>-0.01912090954174681</v>
       </c>
       <c r="F29">
-        <v>0.03693536951048933</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03774608092074747</v>
+      </c>
+      <c r="G29">
+        <v>-0.04076591092882387</v>
+      </c>
+      <c r="H29">
+        <v>0.04710210344290897</v>
+      </c>
+      <c r="I29">
+        <v>-0.04696865373657858</v>
+      </c>
+      <c r="J29">
+        <v>0.01112416162429167</v>
+      </c>
+      <c r="K29">
+        <v>-0.03970692749092711</v>
+      </c>
+      <c r="L29">
+        <v>0.01313388331078559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0.1480447406114679</v>
+        <v>0.1209568426362762</v>
       </c>
       <c r="C30">
-        <v>-0.05371547130881008</v>
+        <v>-0.06900639393683422</v>
       </c>
       <c r="D30">
-        <v>0.09453423786658866</v>
+        <v>0.005623191867304492</v>
       </c>
       <c r="E30">
-        <v>-0.07367563640992082</v>
+        <v>-0.05934424496200721</v>
       </c>
       <c r="F30">
-        <v>0.06165329520110458</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1180687584928702</v>
+      </c>
+      <c r="G30">
+        <v>-0.08748657131860076</v>
+      </c>
+      <c r="H30">
+        <v>-0.07019978941254716</v>
+      </c>
+      <c r="I30">
+        <v>-0.2253714280318667</v>
+      </c>
+      <c r="J30">
+        <v>-0.1309478726259766</v>
+      </c>
+      <c r="K30">
+        <v>-0.2145958855429483</v>
+      </c>
+      <c r="L30">
+        <v>-0.3620125266723026</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.05808843127674106</v>
+        <v>0.04489636043742895</v>
       </c>
       <c r="C31">
-        <v>-0.0095544874280169</v>
+        <v>-0.04105986084581631</v>
       </c>
       <c r="D31">
-        <v>0.03006141600845303</v>
+        <v>0.00369193945218194</v>
       </c>
       <c r="E31">
-        <v>-0.002073411630421547</v>
+        <v>0.006496102884480158</v>
       </c>
       <c r="F31">
-        <v>0.007693965079191206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02090416163616848</v>
+      </c>
+      <c r="G31">
+        <v>-0.009612654504960827</v>
+      </c>
+      <c r="H31">
+        <v>0.05402197996838062</v>
+      </c>
+      <c r="I31">
+        <v>-0.04884044677435112</v>
+      </c>
+      <c r="J31">
+        <v>0.01081653681836415</v>
+      </c>
+      <c r="K31">
+        <v>-0.0214444111709771</v>
+      </c>
+      <c r="L31">
+        <v>-0.005496830596240622</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.04573295683253337</v>
+        <v>0.04962027845425218</v>
       </c>
       <c r="C32">
-        <v>-0.01498083163916646</v>
+        <v>-0.002518270698242841</v>
       </c>
       <c r="D32">
-        <v>0.008542616565530708</v>
+        <v>0.03821999358603977</v>
       </c>
       <c r="E32">
-        <v>0.01086897841719981</v>
+        <v>-0.00741402754589361</v>
       </c>
       <c r="F32">
-        <v>0.06792209706549726</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.05541820401549308</v>
+      </c>
+      <c r="G32">
+        <v>-0.00253580327085495</v>
+      </c>
+      <c r="H32">
+        <v>-0.004299284090850375</v>
+      </c>
+      <c r="I32">
+        <v>0.003014557101949188</v>
+      </c>
+      <c r="J32">
+        <v>-0.01335255435093895</v>
+      </c>
+      <c r="K32">
+        <v>-0.1316975335461384</v>
+      </c>
+      <c r="L32">
+        <v>-0.03683265072407962</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0.102892914543576</v>
+        <v>0.1049720320434357</v>
       </c>
       <c r="C33">
-        <v>-0.0289191508883305</v>
+        <v>-0.05447360208204973</v>
       </c>
       <c r="D33">
-        <v>0.05732145817801967</v>
+        <v>-0.007540065593104068</v>
       </c>
       <c r="E33">
-        <v>-0.01383055706347541</v>
+        <v>0.01862528990913816</v>
       </c>
       <c r="F33">
-        <v>-0.006889204195883731</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.04372685207659444</v>
+      </c>
+      <c r="G33">
+        <v>-0.04457744275452336</v>
+      </c>
+      <c r="H33">
+        <v>0.03278097352452643</v>
+      </c>
+      <c r="I33">
+        <v>-0.07736954934757599</v>
+      </c>
+      <c r="J33">
+        <v>-0.006318614386336819</v>
+      </c>
+      <c r="K33">
+        <v>-0.03918672321022242</v>
+      </c>
+      <c r="L33">
+        <v>0.02090984766656027</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>0.05981059964268091</v>
+        <v>0.06617520539615714</v>
       </c>
       <c r="C34">
-        <v>-0.05224027872654074</v>
+        <v>-0.04908890212763561</v>
       </c>
       <c r="D34">
-        <v>0.03798537614909193</v>
+        <v>-0.0185238526544421</v>
       </c>
       <c r="E34">
-        <v>-0.02483244523612971</v>
+        <v>-0.01163683668371615</v>
       </c>
       <c r="F34">
-        <v>0.03363230672380934</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03272733084493479</v>
+      </c>
+      <c r="G34">
+        <v>-0.06340219019919807</v>
+      </c>
+      <c r="H34">
+        <v>0.0172805138705923</v>
+      </c>
+      <c r="I34">
+        <v>-0.06292889496235235</v>
+      </c>
+      <c r="J34">
+        <v>-0.0379778278232972</v>
+      </c>
+      <c r="K34">
+        <v>0.03677753369881454</v>
+      </c>
+      <c r="L34">
+        <v>0.02965909246604121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>0.04113772262983529</v>
+        <v>0.03417394460919386</v>
       </c>
       <c r="C35">
-        <v>-0.01093896425980808</v>
+        <v>-0.02110061799363989</v>
       </c>
       <c r="D35">
-        <v>0.02543548444278727</v>
+        <v>-0.006115739246411516</v>
       </c>
       <c r="E35">
-        <v>-0.002594703948203112</v>
+        <v>0.006682430179151339</v>
       </c>
       <c r="F35">
-        <v>0.01201814709921772</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.02024958295356326</v>
+      </c>
+      <c r="G35">
+        <v>0.004153713931594143</v>
+      </c>
+      <c r="H35">
+        <v>0.01940248058707372</v>
+      </c>
+      <c r="I35">
+        <v>-0.06824489668067137</v>
+      </c>
+      <c r="J35">
+        <v>-0.03240714231374595</v>
+      </c>
+      <c r="K35">
+        <v>-0.01924893809344895</v>
+      </c>
+      <c r="L35">
+        <v>-0.01556443345269114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>0.03731370232777926</v>
+        <v>0.03303547932888983</v>
       </c>
       <c r="C36">
-        <v>-0.01155012531088665</v>
+        <v>-0.01653141798908482</v>
       </c>
       <c r="D36">
-        <v>0.01473174544248818</v>
+        <v>0.007577998939812361</v>
       </c>
       <c r="E36">
-        <v>-0.03180525969999232</v>
+        <v>-0.02052376352104173</v>
       </c>
       <c r="F36">
-        <v>0.02330599516399692</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02806900129469404</v>
+      </c>
+      <c r="G36">
+        <v>-0.03340262553987542</v>
+      </c>
+      <c r="H36">
+        <v>0.004115105108251087</v>
+      </c>
+      <c r="I36">
+        <v>-0.07102390059697471</v>
+      </c>
+      <c r="J36">
+        <v>-0.006404312895951469</v>
+      </c>
+      <c r="K36">
+        <v>-0.03765608020848887</v>
+      </c>
+      <c r="L36">
+        <v>0.009331002274018872</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +2103,180 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>0.06626898522597802</v>
+        <v>0.04954319425467479</v>
       </c>
       <c r="C38">
-        <v>-0.0185113331072736</v>
+        <v>-0.04483562464090791</v>
       </c>
       <c r="D38">
-        <v>-0.01236023322726352</v>
+        <v>0.02810177222446548</v>
       </c>
       <c r="E38">
-        <v>0.01443222998788183</v>
+        <v>-0.01743655381387115</v>
       </c>
       <c r="F38">
-        <v>0.06190524214327085</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.008721173423185798</v>
+      </c>
+      <c r="G38">
+        <v>0.01359258169392625</v>
+      </c>
+      <c r="H38">
+        <v>0.01727168044527675</v>
+      </c>
+      <c r="I38">
+        <v>0.1282461386366227</v>
+      </c>
+      <c r="J38">
+        <v>-0.02625357058129833</v>
+      </c>
+      <c r="K38">
+        <v>-0.09891516814971213</v>
+      </c>
+      <c r="L38">
+        <v>-0.008307659656753107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>0.09490663232867871</v>
+        <v>0.09536403279546718</v>
       </c>
       <c r="C39">
-        <v>-0.04639185404806093</v>
+        <v>-0.05804981761986951</v>
       </c>
       <c r="D39">
-        <v>0.06188396416972949</v>
+        <v>-0.01805027147962595</v>
       </c>
       <c r="E39">
-        <v>-0.01454901474261914</v>
+        <v>-0.0141172875206119</v>
       </c>
       <c r="F39">
-        <v>0.01753380485761282</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04927282828508401</v>
+      </c>
+      <c r="G39">
+        <v>-0.06335753421723289</v>
+      </c>
+      <c r="H39">
+        <v>-0.001085636370488218</v>
+      </c>
+      <c r="I39">
+        <v>-0.0845220620032705</v>
+      </c>
+      <c r="J39">
+        <v>-0.1623022353423375</v>
+      </c>
+      <c r="K39">
+        <v>0.005635106125684015</v>
+      </c>
+      <c r="L39">
+        <v>-0.06022907441394535</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>0.07250582138642436</v>
+        <v>0.04155123602733323</v>
       </c>
       <c r="C40">
-        <v>-0.0145630276035503</v>
+        <v>-0.04943938827380943</v>
       </c>
       <c r="D40">
-        <v>0.02560733162102498</v>
+        <v>0.0574307723124524</v>
       </c>
       <c r="E40">
-        <v>-0.01951481667586227</v>
+        <v>0.0002657668882949091</v>
       </c>
       <c r="F40">
-        <v>0.1038536293801749</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02815700695258162</v>
+      </c>
+      <c r="G40">
+        <v>-0.08450677731254136</v>
+      </c>
+      <c r="H40">
+        <v>-0.1216917237537103</v>
+      </c>
+      <c r="I40">
+        <v>-0.07308616178479707</v>
+      </c>
+      <c r="J40">
+        <v>-0.2395480923808886</v>
+      </c>
+      <c r="K40">
+        <v>-0.07035613608840087</v>
+      </c>
+      <c r="L40">
+        <v>-0.0425926525666958</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0.0627360029431278</v>
+        <v>0.04634691075353941</v>
       </c>
       <c r="C41">
-        <v>-0.03567888026410882</v>
+        <v>-0.03521471487994389</v>
       </c>
       <c r="D41">
-        <v>0.02757470555423538</v>
+        <v>-0.0144692569801274</v>
       </c>
       <c r="E41">
-        <v>0.00531955804162098</v>
+        <v>0.005924095589365926</v>
       </c>
       <c r="F41">
-        <v>-0.0003751678605645251</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.01653670225691495</v>
+      </c>
+      <c r="G41">
+        <v>-0.03018595988055697</v>
+      </c>
+      <c r="H41">
+        <v>0.0288853075081197</v>
+      </c>
+      <c r="I41">
+        <v>-0.005883259333663036</v>
+      </c>
+      <c r="J41">
+        <v>-0.03448956020985158</v>
+      </c>
+      <c r="K41">
+        <v>-0.04730753298414421</v>
+      </c>
+      <c r="L41">
+        <v>-0.007190778626712768</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2293,104 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>0.0635811534088305</v>
+        <v>0.05892650883031648</v>
       </c>
       <c r="C43">
-        <v>-0.01960950265985791</v>
+        <v>-0.04258931988769745</v>
       </c>
       <c r="D43">
-        <v>0.02135406582748936</v>
+        <v>-0.00417793760520472</v>
       </c>
       <c r="E43">
-        <v>-0.01829323911670537</v>
+        <v>-0.01918430075422318</v>
       </c>
       <c r="F43">
-        <v>-0.001717255003006954</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01181752719237712</v>
+      </c>
+      <c r="G43">
+        <v>-0.020894907127098</v>
+      </c>
+      <c r="H43">
+        <v>0.04924574316211281</v>
+      </c>
+      <c r="I43">
+        <v>-0.01603769676553505</v>
+      </c>
+      <c r="J43">
+        <v>-0.02205586161993908</v>
+      </c>
+      <c r="K43">
+        <v>-0.02271618515141339</v>
+      </c>
+      <c r="L43">
+        <v>0.01660155827329831</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.0827413207302201</v>
+        <v>0.08747800712051779</v>
       </c>
       <c r="C44">
-        <v>-0.03690945096781683</v>
+        <v>-0.051792739315012</v>
       </c>
       <c r="D44">
-        <v>-0.004051371226040052</v>
+        <v>0.02547507484313986</v>
       </c>
       <c r="E44">
-        <v>-0.08888861933053792</v>
+        <v>-0.1055581108271733</v>
       </c>
       <c r="F44">
-        <v>0.1204570375115586</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.07018988696772006</v>
+      </c>
+      <c r="G44">
+        <v>-0.08782173842973644</v>
+      </c>
+      <c r="H44">
+        <v>0.01521359974834333</v>
+      </c>
+      <c r="I44">
+        <v>-0.1212768112244704</v>
+      </c>
+      <c r="J44">
+        <v>-0.095265651401833</v>
+      </c>
+      <c r="K44">
+        <v>-0.01898275429127457</v>
+      </c>
+      <c r="L44">
+        <v>0.0425460641615689</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2407,256 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.03122345060274953</v>
+        <v>0.04429218008086943</v>
       </c>
       <c r="C46">
-        <v>-0.02729950063787472</v>
+        <v>-0.03394560136576601</v>
       </c>
       <c r="D46">
-        <v>0.02037130840865239</v>
+        <v>-0.006208864588402394</v>
       </c>
       <c r="E46">
-        <v>-0.01798310880285502</v>
+        <v>-0.02422160973744687</v>
       </c>
       <c r="F46">
-        <v>0.03653016805289018</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.043558158690004</v>
+      </c>
+      <c r="G46">
+        <v>-0.01259544355126009</v>
+      </c>
+      <c r="H46">
+        <v>0.01588429404354109</v>
+      </c>
+      <c r="I46">
+        <v>-0.03845126635687014</v>
+      </c>
+      <c r="J46">
+        <v>0.01967289466392828</v>
+      </c>
+      <c r="K46">
+        <v>-0.05936670123515384</v>
+      </c>
+      <c r="L46">
+        <v>0.04932561492768101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>0.03789012624108915</v>
+        <v>0.04596077073190939</v>
       </c>
       <c r="C47">
-        <v>0.007173081880267666</v>
+        <v>-0.01826189314528643</v>
       </c>
       <c r="D47">
-        <v>0.007263415513621498</v>
+        <v>0.01500790891287732</v>
       </c>
       <c r="E47">
-        <v>-0.01248795423593672</v>
+        <v>-0.002880050398951862</v>
       </c>
       <c r="F47">
-        <v>0.07766322386899931</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.04134336906619232</v>
+      </c>
+      <c r="G47">
+        <v>-0.005213545809461364</v>
+      </c>
+      <c r="H47">
+        <v>0.02911131409800785</v>
+      </c>
+      <c r="I47">
+        <v>-0.03361402008570103</v>
+      </c>
+      <c r="J47">
+        <v>0.02368483180383118</v>
+      </c>
+      <c r="K47">
+        <v>0.001895288547269006</v>
+      </c>
+      <c r="L47">
+        <v>-0.009286493530991726</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>0.04775744709312939</v>
+        <v>0.04425715294546831</v>
       </c>
       <c r="C48">
-        <v>-0.01238828631383567</v>
+        <v>-0.0149291301629185</v>
       </c>
       <c r="D48">
-        <v>0.02719811950979234</v>
+        <v>0.01606865706373619</v>
       </c>
       <c r="E48">
-        <v>-0.02140411294871121</v>
+        <v>-0.006448453807874563</v>
       </c>
       <c r="F48">
-        <v>0.04998858947376455</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.04043569171557202</v>
+      </c>
+      <c r="G48">
+        <v>-0.01629020433247411</v>
+      </c>
+      <c r="H48">
+        <v>-0.008572209889030239</v>
+      </c>
+      <c r="I48">
+        <v>-0.05699012860989071</v>
+      </c>
+      <c r="J48">
+        <v>0.004219170122174597</v>
+      </c>
+      <c r="K48">
+        <v>-0.03540285278392179</v>
+      </c>
+      <c r="L48">
+        <v>-0.01972985571975164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0.1451336757206631</v>
+        <v>0.2058365184122719</v>
       </c>
       <c r="C49">
-        <v>-0.01633997171409975</v>
+        <v>-0.02238064637887519</v>
       </c>
       <c r="D49">
-        <v>0.09973174905507511</v>
+        <v>-0.1878338177491456</v>
       </c>
       <c r="E49">
-        <v>-0.02548231684880104</v>
+        <v>0.02321899314794437</v>
       </c>
       <c r="F49">
-        <v>-0.1374738780349169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.0270614932638287</v>
+      </c>
+      <c r="G49">
+        <v>0.1820187174519175</v>
+      </c>
+      <c r="H49">
+        <v>-0.1703803647100704</v>
+      </c>
+      <c r="I49">
+        <v>0.1321831719664178</v>
+      </c>
+      <c r="J49">
+        <v>-0.1173505651224861</v>
+      </c>
+      <c r="K49">
+        <v>0.15938661534561</v>
+      </c>
+      <c r="L49">
+        <v>0.114171664247081</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>0.06503377901111475</v>
+        <v>0.05347636928931827</v>
       </c>
       <c r="C50">
-        <v>-0.01474931204521169</v>
+        <v>-0.0399477613377777</v>
       </c>
       <c r="D50">
-        <v>0.04126406847797046</v>
+        <v>-0.00376204424104384</v>
       </c>
       <c r="E50">
-        <v>-0.003025525453777721</v>
+        <v>0.01220907397625247</v>
       </c>
       <c r="F50">
-        <v>0.02639846179483415</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.03891520730460539</v>
+      </c>
+      <c r="G50">
+        <v>-0.02663881100995899</v>
+      </c>
+      <c r="H50">
+        <v>0.05208015521980423</v>
+      </c>
+      <c r="I50">
+        <v>-0.04473163259491708</v>
+      </c>
+      <c r="J50">
+        <v>0.03365519902612735</v>
+      </c>
+      <c r="K50">
+        <v>-0.03420954122686529</v>
+      </c>
+      <c r="L50">
+        <v>-0.0226081166530888</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>0.03858643466505518</v>
+        <v>0.04014041664099231</v>
       </c>
       <c r="C51">
-        <v>-0.005278710202930434</v>
+        <v>-0.006953329861662538</v>
       </c>
       <c r="D51">
-        <v>-0.007191887026010032</v>
+        <v>0.005841601069943348</v>
       </c>
       <c r="E51">
-        <v>-0.0003775193669152512</v>
+        <v>-0.02074623296705039</v>
       </c>
       <c r="F51">
-        <v>0.01048467783288513</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.02802144479621774</v>
+      </c>
+      <c r="G51">
+        <v>0.01453165418818692</v>
+      </c>
+      <c r="H51">
+        <v>-0.01298879538778109</v>
+      </c>
+      <c r="I51">
+        <v>0.00840894974003918</v>
+      </c>
+      <c r="J51">
+        <v>-0.03659584436800078</v>
+      </c>
+      <c r="K51">
+        <v>0.06410893224627455</v>
+      </c>
+      <c r="L51">
+        <v>0.02188571398927466</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2673,180 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>0.1516826760708026</v>
+        <v>0.1533520514995469</v>
       </c>
       <c r="C53">
-        <v>0.03710503941598162</v>
+        <v>-0.02537405509246763</v>
       </c>
       <c r="D53">
-        <v>0.07667536933346809</v>
+        <v>-0.07229489353152274</v>
       </c>
       <c r="E53">
-        <v>-0.01023817196538223</v>
+        <v>0.02144930899905652</v>
       </c>
       <c r="F53">
-        <v>-0.0558589307608835</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.006885758486615228</v>
+      </c>
+      <c r="G53">
+        <v>0.002154172435562912</v>
+      </c>
+      <c r="H53">
+        <v>0.2458845972037446</v>
+      </c>
+      <c r="I53">
+        <v>0.05653000705627399</v>
+      </c>
+      <c r="J53">
+        <v>0.04201014783392573</v>
+      </c>
+      <c r="K53">
+        <v>0.0480604342862743</v>
+      </c>
+      <c r="L53">
+        <v>0.0208122703054334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>0.06429417569216703</v>
+        <v>0.06067140940357472</v>
       </c>
       <c r="C54">
-        <v>-0.02379918801254237</v>
+        <v>-0.02201223536558134</v>
       </c>
       <c r="D54">
-        <v>0.001994580389173078</v>
+        <v>0.0225866762951619</v>
       </c>
       <c r="E54">
-        <v>-0.04212850891155604</v>
+        <v>-0.03415276966038875</v>
       </c>
       <c r="F54">
-        <v>0.06012654942896059</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.050234311044851</v>
+      </c>
+      <c r="G54">
+        <v>-0.07691775206626408</v>
+      </c>
+      <c r="H54">
+        <v>0.004410299344272776</v>
+      </c>
+      <c r="I54">
+        <v>-0.1135653987062702</v>
+      </c>
+      <c r="J54">
+        <v>0.01549265087011331</v>
+      </c>
+      <c r="K54">
+        <v>-0.06402573044686759</v>
+      </c>
+      <c r="L54">
+        <v>-0.0004356827536822575</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>0.09451788870691828</v>
+        <v>0.09441468891053148</v>
       </c>
       <c r="C55">
-        <v>0.01278722001821464</v>
+        <v>-0.0310532735982633</v>
       </c>
       <c r="D55">
-        <v>0.0575980700893509</v>
+        <v>-0.05055846661528761</v>
       </c>
       <c r="E55">
-        <v>-0.02799875615127766</v>
+        <v>-0.005964420113082055</v>
       </c>
       <c r="F55">
-        <v>0.01284687117223049</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01721465112305252</v>
+      </c>
+      <c r="G55">
+        <v>-0.04245398824672655</v>
+      </c>
+      <c r="H55">
+        <v>0.1642240187115418</v>
+      </c>
+      <c r="I55">
+        <v>-0.008910102328138426</v>
+      </c>
+      <c r="J55">
+        <v>0.02407447511607487</v>
+      </c>
+      <c r="K55">
+        <v>0.03940586196915318</v>
+      </c>
+      <c r="L55">
+        <v>0.0574288195813859</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>0.1500836847242423</v>
+        <v>0.1484302984482054</v>
       </c>
       <c r="C56">
-        <v>0.04571305524958637</v>
+        <v>-0.04170465916262582</v>
       </c>
       <c r="D56">
-        <v>0.08410015927566811</v>
+        <v>-0.07156639881343718</v>
       </c>
       <c r="E56">
-        <v>-0.05071916790966664</v>
+        <v>-0.001873074997989927</v>
       </c>
       <c r="F56">
-        <v>-0.06245777173485809</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.01747677751991546</v>
+      </c>
+      <c r="G56">
+        <v>-0.02001859201157375</v>
+      </c>
+      <c r="H56">
+        <v>0.2462079780968641</v>
+      </c>
+      <c r="I56">
+        <v>0.07470532103740092</v>
+      </c>
+      <c r="J56">
+        <v>0.02273689642225615</v>
+      </c>
+      <c r="K56">
+        <v>0.02205083718838313</v>
+      </c>
+      <c r="L56">
+        <v>-0.02014205025278789</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,770 +2863,1472 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>0.1093394959649821</v>
+        <v>0.0705458713730525</v>
       </c>
       <c r="C58">
-        <v>-0.07333731212900742</v>
+        <v>-0.04739199636552073</v>
       </c>
       <c r="D58">
-        <v>-0.1679209033924054</v>
+        <v>0.1788896760700646</v>
       </c>
       <c r="E58">
-        <v>-0.1054893166046663</v>
+        <v>-0.09075191056239201</v>
       </c>
       <c r="F58">
-        <v>0.2522408816552613</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.08056729388263455</v>
+      </c>
+      <c r="G58">
+        <v>0.1162652956746952</v>
+      </c>
+      <c r="H58">
+        <v>-0.1440418065345052</v>
+      </c>
+      <c r="I58">
+        <v>-0.5333270532495474</v>
+      </c>
+      <c r="J58">
+        <v>-0.03493323694827327</v>
+      </c>
+      <c r="K58">
+        <v>0.3014903526517047</v>
+      </c>
+      <c r="L58">
+        <v>-0.2318200140060996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>0.1625811993427498</v>
+        <v>0.193491632382505</v>
       </c>
       <c r="C59">
-        <v>0.418924735489652</v>
+        <v>0.3285138903938645</v>
       </c>
       <c r="D59">
-        <v>-0.1053419499460527</v>
+        <v>0.03178931441370246</v>
       </c>
       <c r="E59">
-        <v>-0.08955067401419645</v>
+        <v>-0.02781553142862984</v>
       </c>
       <c r="F59">
-        <v>0.04336353697335728</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.04156418104887657</v>
+      </c>
+      <c r="G59">
+        <v>-0.0314100951885815</v>
+      </c>
+      <c r="H59">
+        <v>0.05448837464670334</v>
+      </c>
+      <c r="I59">
+        <v>0.05986503951677011</v>
+      </c>
+      <c r="J59">
+        <v>-0.0437178177882931</v>
+      </c>
+      <c r="K59">
+        <v>0.004625313980868978</v>
+      </c>
+      <c r="L59">
+        <v>0.002401179874337372</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>0.2232088280436847</v>
+        <v>0.2427693026326746</v>
       </c>
       <c r="C60">
-        <v>0.02080505116710824</v>
+        <v>-0.061408430945745</v>
       </c>
       <c r="D60">
-        <v>0.1019686354322737</v>
+        <v>-0.1442279367273353</v>
       </c>
       <c r="E60">
-        <v>-0.06443007136295847</v>
+        <v>-0.00999425104599669</v>
       </c>
       <c r="F60">
-        <v>-0.04101410887747933</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.01729587508534623</v>
+      </c>
+      <c r="G60">
+        <v>0.04452411289856099</v>
+      </c>
+      <c r="H60">
+        <v>-0.07638502975633994</v>
+      </c>
+      <c r="I60">
+        <v>0.110908692208545</v>
+      </c>
+      <c r="J60">
+        <v>0.104804508460947</v>
+      </c>
+      <c r="K60">
+        <v>0.1388890619848936</v>
+      </c>
+      <c r="L60">
+        <v>-0.01562820120157339</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>0.08076689209582746</v>
+        <v>0.08601988184413796</v>
       </c>
       <c r="C61">
-        <v>-0.02559449550996552</v>
+        <v>-0.04401945621201468</v>
       </c>
       <c r="D61">
-        <v>0.04525720641820874</v>
+        <v>-0.02163873283164897</v>
       </c>
       <c r="E61">
-        <v>-0.01266348627945977</v>
+        <v>-0.02036162865202394</v>
       </c>
       <c r="F61">
-        <v>0.001360581448546285</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03180587685119346</v>
+      </c>
+      <c r="G61">
+        <v>-0.07567506899098225</v>
+      </c>
+      <c r="H61">
+        <v>0.04739503729434957</v>
+      </c>
+      <c r="I61">
+        <v>-0.04142572904081346</v>
+      </c>
+      <c r="J61">
+        <v>-0.08686990000597186</v>
+      </c>
+      <c r="K61">
+        <v>-0.001734688303212125</v>
+      </c>
+      <c r="L61">
+        <v>-0.009168028803666265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0.152298198751438</v>
+        <v>0.1474843138915639</v>
       </c>
       <c r="C62">
-        <v>0.01479354263520648</v>
+        <v>-0.04854594316552516</v>
       </c>
       <c r="D62">
-        <v>0.05808241758624447</v>
+        <v>-0.06632947843676393</v>
       </c>
       <c r="E62">
-        <v>0.008231476138777838</v>
+        <v>0.0412295462332164</v>
       </c>
       <c r="F62">
-        <v>-0.1023268337755714</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.01384257512327957</v>
+      </c>
+      <c r="G62">
+        <v>-0.03451103226025133</v>
+      </c>
+      <c r="H62">
+        <v>0.2135930992876191</v>
+      </c>
+      <c r="I62">
+        <v>0.0572578483471029</v>
+      </c>
+      <c r="J62">
+        <v>0.07667044774208401</v>
+      </c>
+      <c r="K62">
+        <v>0.01564430986599464</v>
+      </c>
+      <c r="L62">
+        <v>0.04261990316713371</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>0.06033553654734811</v>
+        <v>0.05157550646921611</v>
       </c>
       <c r="C63">
-        <v>-0.03548450005423894</v>
+        <v>-0.02857946686300341</v>
       </c>
       <c r="D63">
-        <v>0.02682192434925917</v>
+        <v>0.002543041829420091</v>
       </c>
       <c r="E63">
-        <v>-0.01297165880176161</v>
+        <v>0.004637148329353476</v>
       </c>
       <c r="F63">
-        <v>0.003157435859166008</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02771311309679952</v>
+      </c>
+      <c r="G63">
+        <v>-0.0512250877018734</v>
+      </c>
+      <c r="H63">
+        <v>0.008477498405835568</v>
+      </c>
+      <c r="I63">
+        <v>-0.05685777496547582</v>
+      </c>
+      <c r="J63">
+        <v>0.02656231474687231</v>
+      </c>
+      <c r="K63">
+        <v>-0.03376881254028197</v>
+      </c>
+      <c r="L63">
+        <v>-0.00740220009669121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>0.09790376386094439</v>
+        <v>0.1027653073443429</v>
       </c>
       <c r="C64">
-        <v>0.01237144957971731</v>
+        <v>-0.02378679485188767</v>
       </c>
       <c r="D64">
-        <v>0.06255308826082366</v>
+        <v>-0.03924629705987264</v>
       </c>
       <c r="E64">
-        <v>-0.03642664455900999</v>
+        <v>-0.03142390193200972</v>
       </c>
       <c r="F64">
-        <v>0.04554667792711473</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.07555660876826664</v>
+      </c>
+      <c r="G64">
+        <v>-0.05303645905523834</v>
+      </c>
+      <c r="H64">
+        <v>-0.02309659176340047</v>
+      </c>
+      <c r="I64">
+        <v>-0.03219940340326597</v>
+      </c>
+      <c r="J64">
+        <v>-0.05159471451928922</v>
+      </c>
+      <c r="K64">
+        <v>-0.02842417728748897</v>
+      </c>
+      <c r="L64">
+        <v>-0.03250032936628197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>0.1162709677490637</v>
+        <v>0.1288404973414292</v>
       </c>
       <c r="C65">
-        <v>-0.01673199089689002</v>
+        <v>-0.02101708873796598</v>
       </c>
       <c r="D65">
-        <v>0.04389403609665066</v>
+        <v>-0.05630846966293055</v>
       </c>
       <c r="E65">
-        <v>-0.04772904050042653</v>
+        <v>0.009338937474819989</v>
       </c>
       <c r="F65">
-        <v>0.09417402794892447</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.05827463428098866</v>
+      </c>
+      <c r="G65">
+        <v>-0.07347161992490689</v>
+      </c>
+      <c r="H65">
+        <v>-0.1740722383425687</v>
+      </c>
+      <c r="I65">
+        <v>-0.1880515668992152</v>
+      </c>
+      <c r="J65">
+        <v>0.6544242532741895</v>
+      </c>
+      <c r="K65">
+        <v>0.06396013493145745</v>
+      </c>
+      <c r="L65">
+        <v>-0.0007714999687593447</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>0.1562764113938074</v>
+        <v>0.1366160158158755</v>
       </c>
       <c r="C66">
-        <v>-0.08340757651993821</v>
+        <v>-0.1083052754458664</v>
       </c>
       <c r="D66">
-        <v>0.08994178013260251</v>
+        <v>-0.02687102891570627</v>
       </c>
       <c r="E66">
-        <v>-0.02604902230334143</v>
+        <v>-0.004246602047764607</v>
       </c>
       <c r="F66">
-        <v>-0.03663063806664592</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.04184422179292483</v>
+      </c>
+      <c r="G66">
+        <v>-0.09788366727907044</v>
+      </c>
+      <c r="H66">
+        <v>0.007787137322941571</v>
+      </c>
+      <c r="I66">
+        <v>-0.06654064386015567</v>
+      </c>
+      <c r="J66">
+        <v>-0.2486630176707559</v>
+      </c>
+      <c r="K66">
+        <v>-0.04737416475319703</v>
+      </c>
+      <c r="L66">
+        <v>-0.0307216365014044</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>0.09859432808841533</v>
+        <v>0.09708844948669351</v>
       </c>
       <c r="C67">
-        <v>-0.02888730182554934</v>
+        <v>-0.05512536320641227</v>
       </c>
       <c r="D67">
-        <v>-0.007410433743792645</v>
+        <v>0.008569529576628045</v>
       </c>
       <c r="E67">
-        <v>-0.008629867070074499</v>
+        <v>-0.04369800802101331</v>
       </c>
       <c r="F67">
-        <v>0.01258796430265561</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01926576303099536</v>
+      </c>
+      <c r="G67">
+        <v>-0.009235856826280964</v>
+      </c>
+      <c r="H67">
+        <v>0.005117055692255128</v>
+      </c>
+      <c r="I67">
+        <v>0.1466570507017867</v>
+      </c>
+      <c r="J67">
+        <v>-0.05382024720690681</v>
+      </c>
+      <c r="K67">
+        <v>-0.0685847067477728</v>
+      </c>
+      <c r="L67">
+        <v>0.0310411426539309</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>0.05798222149643358</v>
+        <v>0.09603525420758924</v>
       </c>
       <c r="C68">
-        <v>0.2524829465274699</v>
+        <v>0.2748289059983153</v>
       </c>
       <c r="D68">
-        <v>-0.07146713725326566</v>
+        <v>0.04812433585964399</v>
       </c>
       <c r="E68">
-        <v>-0.03998504235900535</v>
+        <v>-0.02440757420838213</v>
       </c>
       <c r="F68">
-        <v>0.04944381858584806</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01943126000130765</v>
+      </c>
+      <c r="G68">
+        <v>0.003338110918523959</v>
+      </c>
+      <c r="H68">
+        <v>0.03008091314895128</v>
+      </c>
+      <c r="I68">
+        <v>-0.04301034319408376</v>
+      </c>
+      <c r="J68">
+        <v>0.05176618942619902</v>
+      </c>
+      <c r="K68">
+        <v>-0.01532019541546731</v>
+      </c>
+      <c r="L68">
+        <v>-0.02859911589749255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>0.06546959060418631</v>
+        <v>0.05462579998156431</v>
       </c>
       <c r="C69">
-        <v>-0.01642222979954184</v>
+        <v>-0.02501822215597816</v>
       </c>
       <c r="D69">
-        <v>0.001896182790363571</v>
+        <v>0.01421631343012348</v>
       </c>
       <c r="E69">
-        <v>-0.01567739133860351</v>
+        <v>0.004479037031552931</v>
       </c>
       <c r="F69">
-        <v>0.008040912833166927</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.004640061478046746</v>
+      </c>
+      <c r="G69">
+        <v>-0.02822984438891661</v>
+      </c>
+      <c r="H69">
+        <v>0.03877234304317673</v>
+      </c>
+      <c r="I69">
+        <v>-0.009579549036961907</v>
+      </c>
+      <c r="J69">
+        <v>-0.009673297726000065</v>
+      </c>
+      <c r="K69">
+        <v>0.008067939048128966</v>
+      </c>
+      <c r="L69">
+        <v>-0.01353301467995597</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>0.01809809085083337</v>
+        <v>0.04127752755865008</v>
       </c>
       <c r="C70">
-        <v>0.007896077614945724</v>
+        <v>-0.0176570396454185</v>
       </c>
       <c r="D70">
-        <v>-0.0005769786147477816</v>
+        <v>-0.02867895547371856</v>
       </c>
       <c r="E70">
-        <v>0.01427248024157361</v>
+        <v>0.008749156595910596</v>
       </c>
       <c r="F70">
-        <v>-0.004737309258298224</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>-0.04392192019487341</v>
+      </c>
+      <c r="G70">
+        <v>-0.01341351638846945</v>
+      </c>
+      <c r="H70">
+        <v>-0.01894082981000181</v>
+      </c>
+      <c r="I70">
+        <v>0.0326568540911448</v>
+      </c>
+      <c r="J70">
+        <v>-0.03102445494584724</v>
+      </c>
+      <c r="K70">
+        <v>-0.1416327344614709</v>
+      </c>
+      <c r="L70">
+        <v>-0.0005728343631811802</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>0.06128158875962773</v>
+        <v>0.1082471222748313</v>
       </c>
       <c r="C71">
-        <v>0.2665880120494757</v>
+        <v>0.2877738325527082</v>
       </c>
       <c r="D71">
-        <v>-0.06830574830377467</v>
+        <v>0.03226013461810465</v>
       </c>
       <c r="E71">
-        <v>-0.07382483190397046</v>
+        <v>-0.04315151245652583</v>
       </c>
       <c r="F71">
-        <v>0.0331027938011088</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02276803084508309</v>
+      </c>
+      <c r="G71">
+        <v>-0.005491198115033878</v>
+      </c>
+      <c r="H71">
+        <v>0.01699022536753364</v>
+      </c>
+      <c r="I71">
+        <v>-0.02281048489439723</v>
+      </c>
+      <c r="J71">
+        <v>0.0139994724706128</v>
+      </c>
+      <c r="K71">
+        <v>-0.00655224219241037</v>
+      </c>
+      <c r="L71">
+        <v>0.01414957875063063</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>0.1436259183622026</v>
+        <v>0.135059239689837</v>
       </c>
       <c r="C72">
-        <v>0.05248889871051796</v>
+        <v>-0.008506014257893494</v>
       </c>
       <c r="D72">
-        <v>0.03253084850020424</v>
+        <v>0.01655339323111406</v>
       </c>
       <c r="E72">
-        <v>0.2400043648230037</v>
+        <v>0.17545382308514</v>
       </c>
       <c r="F72">
-        <v>0.01541428271957896</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.005024603590884817</v>
+      </c>
+      <c r="G72">
+        <v>-0.1288852053413399</v>
+      </c>
+      <c r="H72">
+        <v>0.01639042714552124</v>
+      </c>
+      <c r="I72">
+        <v>0.02792684538934122</v>
+      </c>
+      <c r="J72">
+        <v>0.1066776796545966</v>
+      </c>
+      <c r="K72">
+        <v>0.112083433872989</v>
+      </c>
+      <c r="L72">
+        <v>0.08760813517680413</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>0.2467097108286996</v>
+        <v>0.2402021735903322</v>
       </c>
       <c r="C73">
-        <v>-0.05155332563691777</v>
+        <v>-0.1070691058636107</v>
       </c>
       <c r="D73">
-        <v>0.1403343274039094</v>
+        <v>-0.2420771531308027</v>
       </c>
       <c r="E73">
-        <v>-0.09164865686541593</v>
+        <v>-0.03643047928177822</v>
       </c>
       <c r="F73">
-        <v>-0.1491768685635385</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1492747613964135</v>
+      </c>
+      <c r="G73">
+        <v>0.294399745690363</v>
+      </c>
+      <c r="H73">
+        <v>-0.2574286609880336</v>
+      </c>
+      <c r="I73">
+        <v>0.1194968085581757</v>
+      </c>
+      <c r="J73">
+        <v>-0.1693048370152347</v>
+      </c>
+      <c r="K73">
+        <v>0.4932749037275241</v>
+      </c>
+      <c r="L73">
+        <v>-0.04106972447680241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>0.08595876114155204</v>
+        <v>0.09056787560548935</v>
       </c>
       <c r="C74">
-        <v>0.02155795847068408</v>
+        <v>-0.04221170201682122</v>
       </c>
       <c r="D74">
-        <v>0.05929423809635494</v>
+        <v>-0.04579560007317492</v>
       </c>
       <c r="E74">
-        <v>-0.01136232135271186</v>
+        <v>0.01517550256538456</v>
       </c>
       <c r="F74">
-        <v>0.01385015662178295</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.02660564292439858</v>
+      </c>
+      <c r="G74">
+        <v>0.009915931032279435</v>
+      </c>
+      <c r="H74">
+        <v>0.1452858990733335</v>
+      </c>
+      <c r="I74">
+        <v>1.410525140237526e-05</v>
+      </c>
+      <c r="J74">
+        <v>-0.01270525915994495</v>
+      </c>
+      <c r="K74">
+        <v>0.06221160227092257</v>
+      </c>
+      <c r="L74">
+        <v>0.001410753578322663</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>0.1193743796850252</v>
+        <v>0.1012062131287885</v>
       </c>
       <c r="C75">
-        <v>0.004215264205745441</v>
+        <v>-0.0391461727496505</v>
       </c>
       <c r="D75">
-        <v>-0.0002861129783136574</v>
+        <v>0.01048811586403309</v>
       </c>
       <c r="E75">
-        <v>-0.02316596278268357</v>
+        <v>0.004975463351859241</v>
       </c>
       <c r="F75">
-        <v>-0.0245931841367971</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.03587149015645964</v>
+      </c>
+      <c r="G75">
+        <v>-0.001324496007964402</v>
+      </c>
+      <c r="H75">
+        <v>0.1389954831090012</v>
+      </c>
+      <c r="I75">
+        <v>0.02010396389716554</v>
+      </c>
+      <c r="J75">
+        <v>0.04254166244573176</v>
+      </c>
+      <c r="K75">
+        <v>0.02156261089961766</v>
+      </c>
+      <c r="L75">
+        <v>-0.01709345067695448</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>0.1374362038398854</v>
+        <v>0.1195583334012864</v>
       </c>
       <c r="C76">
-        <v>0.01223005718458802</v>
+        <v>-0.05784299154066579</v>
       </c>
       <c r="D76">
-        <v>0.07012755896431754</v>
+        <v>-0.05545382231554026</v>
       </c>
       <c r="E76">
-        <v>-0.02143593484947974</v>
+        <v>-0.002227426336533194</v>
       </c>
       <c r="F76">
-        <v>-0.006030019905654729</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.01886275752531225</v>
+      </c>
+      <c r="G76">
+        <v>-0.005337764467521139</v>
+      </c>
+      <c r="H76">
+        <v>0.2432835579974836</v>
+      </c>
+      <c r="I76">
+        <v>0.03742846965561127</v>
+      </c>
+      <c r="J76">
+        <v>0.04225251058775602</v>
+      </c>
+      <c r="K76">
+        <v>0.03729296457409897</v>
+      </c>
+      <c r="L76">
+        <v>-0.01055289600823431</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>0.1262093880832849</v>
+        <v>0.08943930177459146</v>
       </c>
       <c r="C77">
-        <v>-0.06137243728202125</v>
+        <v>-0.03362108652025235</v>
       </c>
       <c r="D77">
-        <v>-0.102783414471671</v>
+        <v>0.1453651842106098</v>
       </c>
       <c r="E77">
-        <v>-0.01062236565461745</v>
+        <v>-0.118840292817301</v>
       </c>
       <c r="F77">
-        <v>0.249648735196066</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.05492633932202221</v>
+      </c>
+      <c r="G77">
+        <v>-0.6541342748065953</v>
+      </c>
+      <c r="H77">
+        <v>-0.3173121479015646</v>
+      </c>
+      <c r="I77">
+        <v>0.4331418701560421</v>
+      </c>
+      <c r="J77">
+        <v>-0.01573102100845411</v>
+      </c>
+      <c r="K77">
+        <v>0.1047312433329329</v>
+      </c>
+      <c r="L77">
+        <v>-0.1170378923414136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>0.1244441009161433</v>
+        <v>0.1595631427442686</v>
       </c>
       <c r="C78">
-        <v>-0.06775041090133584</v>
+        <v>-0.08045947301835879</v>
       </c>
       <c r="D78">
-        <v>0.05601932840529037</v>
+        <v>0.03227645423847612</v>
       </c>
       <c r="E78">
-        <v>-0.02251969031055127</v>
+        <v>-0.08556342407582863</v>
       </c>
       <c r="F78">
-        <v>0.08572800287553772</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.1514029606568962</v>
+      </c>
+      <c r="G78">
+        <v>0.0007883965304166334</v>
+      </c>
+      <c r="H78">
+        <v>-0.1292318991975914</v>
+      </c>
+      <c r="I78">
+        <v>-0.04671291593024361</v>
+      </c>
+      <c r="J78">
+        <v>-0.01809817202037324</v>
+      </c>
+      <c r="K78">
+        <v>-0.03086300166822091</v>
+      </c>
+      <c r="L78">
+        <v>0.4957997333295071</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>0.1421157175917317</v>
+        <v>0.1385174377539473</v>
       </c>
       <c r="C79">
-        <v>-0.003521980882948075</v>
+        <v>-0.0516171969217837</v>
       </c>
       <c r="D79">
-        <v>0.0673862733602168</v>
+        <v>-0.0463510526323266</v>
       </c>
       <c r="E79">
-        <v>-0.008375586590244151</v>
+        <v>0.005087273084718257</v>
       </c>
       <c r="F79">
-        <v>-0.06498045680430602</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.01560363575466166</v>
+      </c>
+      <c r="G79">
+        <v>-0.04013613249286745</v>
+      </c>
+      <c r="H79">
+        <v>0.1870376783631381</v>
+      </c>
+      <c r="I79">
+        <v>0.06262169746044145</v>
+      </c>
+      <c r="J79">
+        <v>0.06173953877372795</v>
+      </c>
+      <c r="K79">
+        <v>0.024503024488797</v>
+      </c>
+      <c r="L79">
+        <v>0.009646671334532213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>0.03487818261539927</v>
+        <v>0.0433337656870344</v>
       </c>
       <c r="C80">
-        <v>-0.01877471628710094</v>
+        <v>-0.01342576556353897</v>
       </c>
       <c r="D80">
-        <v>0.01892108424349857</v>
+        <v>-0.0577761610480071</v>
       </c>
       <c r="E80">
-        <v>-0.0006801925518193452</v>
+        <v>0.0141500599382458</v>
       </c>
       <c r="F80">
-        <v>0.009094040920160942</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.01896573790423159</v>
+      </c>
+      <c r="G80">
+        <v>-0.002661929995733271</v>
+      </c>
+      <c r="H80">
+        <v>-0.03127753222021118</v>
+      </c>
+      <c r="I80">
+        <v>-0.06909250692904757</v>
+      </c>
+      <c r="J80">
+        <v>-0.03853752020392211</v>
+      </c>
+      <c r="K80">
+        <v>-0.02844439985973287</v>
+      </c>
+      <c r="L80">
+        <v>0.02804767937507017</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>0.1365213950783893</v>
+        <v>0.1323806663880931</v>
       </c>
       <c r="C81">
-        <v>-0.006402568587168862</v>
+        <v>-0.03895060491124172</v>
       </c>
       <c r="D81">
-        <v>0.06748239800067146</v>
+        <v>-0.03832082367945413</v>
       </c>
       <c r="E81">
-        <v>-0.02905712584719306</v>
+        <v>0.003826022808075147</v>
       </c>
       <c r="F81">
-        <v>-0.04128768881513721</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.01917668522129908</v>
+      </c>
+      <c r="G81">
+        <v>-0.0285133104820421</v>
+      </c>
+      <c r="H81">
+        <v>0.162988826049419</v>
+      </c>
+      <c r="I81">
+        <v>0.01788335760243109</v>
+      </c>
+      <c r="J81">
+        <v>-0.03329835331233082</v>
+      </c>
+      <c r="K81">
+        <v>0.0003583743946287109</v>
+      </c>
+      <c r="L81">
+        <v>-0.0765481821108973</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>0.1194307056834853</v>
+        <v>0.1213837692060532</v>
       </c>
       <c r="C82">
-        <v>-0.01835979765105104</v>
+        <v>-0.04275465961937142</v>
       </c>
       <c r="D82">
-        <v>0.0407836420066393</v>
+        <v>-0.04154294088696958</v>
       </c>
       <c r="E82">
-        <v>-0.0367784215420737</v>
+        <v>0.01179096391906513</v>
       </c>
       <c r="F82">
-        <v>-0.0709958352965087</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.007728302187361186</v>
+      </c>
+      <c r="G82">
+        <v>-0.002700287248556845</v>
+      </c>
+      <c r="H82">
+        <v>0.2742805392802493</v>
+      </c>
+      <c r="I82">
+        <v>0.04069915230192013</v>
+      </c>
+      <c r="J82">
+        <v>-0.0261871779155817</v>
+      </c>
+      <c r="K82">
+        <v>-0.01122364554874336</v>
+      </c>
+      <c r="L82">
+        <v>0.005772812494929633</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>0.05422552897888858</v>
+        <v>0.07477581882028865</v>
       </c>
       <c r="C83">
-        <v>-0.02828826898672119</v>
+        <v>-0.04062985050973347</v>
       </c>
       <c r="D83">
-        <v>-0.06881714748996935</v>
+        <v>0.01077030337799119</v>
       </c>
       <c r="E83">
-        <v>-0.009361722540297263</v>
+        <v>-0.02062920702213204</v>
       </c>
       <c r="F83">
-        <v>-0.07471580867893259</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.08361066693026956</v>
+      </c>
+      <c r="G83">
+        <v>0.03730975252156946</v>
+      </c>
+      <c r="H83">
+        <v>-0.05310569153268458</v>
+      </c>
+      <c r="I83">
+        <v>-0.07657321637187359</v>
+      </c>
+      <c r="J83">
+        <v>-0.0376153759025394</v>
+      </c>
+      <c r="K83">
+        <v>-0.06849359114367544</v>
+      </c>
+      <c r="L83">
+        <v>0.04740585708774772</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>0.04825600912773065</v>
+        <v>0.03879632855940692</v>
       </c>
       <c r="C84">
-        <v>-0.005650947547497795</v>
+        <v>0.02151477542417836</v>
       </c>
       <c r="D84">
-        <v>0.04987048581398231</v>
+        <v>0.01519617860996367</v>
       </c>
       <c r="E84">
-        <v>0.02082511127834657</v>
+        <v>0.03042418113494458</v>
       </c>
       <c r="F84">
-        <v>-0.002425851778497138</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.05679523073763909</v>
+      </c>
+      <c r="G84">
+        <v>0.1229904388452383</v>
+      </c>
+      <c r="H84">
+        <v>-0.148310422371506</v>
+      </c>
+      <c r="I84">
+        <v>-0.09620478365880629</v>
+      </c>
+      <c r="J84">
+        <v>-0.0896951125806725</v>
+      </c>
+      <c r="K84">
+        <v>-0.1801641839938259</v>
+      </c>
+      <c r="L84">
+        <v>0.4188953243172086</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>0.1084685217857407</v>
+        <v>0.1172543183222065</v>
       </c>
       <c r="C85">
-        <v>-0.02821853317355327</v>
+        <v>-0.04314850140610069</v>
       </c>
       <c r="D85">
-        <v>0.03584366585319752</v>
+        <v>-0.03861792100725695</v>
       </c>
       <c r="E85">
-        <v>-0.06247328920195781</v>
+        <v>-0.03809262565089499</v>
       </c>
       <c r="F85">
-        <v>-0.008067776108128311</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.006848854185708225</v>
+      </c>
+      <c r="G85">
+        <v>-0.0307317464434637</v>
+      </c>
+      <c r="H85">
+        <v>0.1949294790307676</v>
+      </c>
+      <c r="I85">
+        <v>0.03298584866049455</v>
+      </c>
+      <c r="J85">
+        <v>0.05352406209145462</v>
+      </c>
+      <c r="K85">
+        <v>0.02571167377771473</v>
+      </c>
+      <c r="L85">
+        <v>0.009402173768061609</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>0.07115291795892559</v>
+        <v>0.07072270412413163</v>
       </c>
       <c r="C86">
-        <v>-0.07445303613421828</v>
+        <v>-0.02642269675695202</v>
       </c>
       <c r="D86">
-        <v>0.03606489499979136</v>
+        <v>0.01828395679881829</v>
       </c>
       <c r="E86">
-        <v>-0.004808248267155498</v>
+        <v>-0.02879832276149442</v>
       </c>
       <c r="F86">
-        <v>0.02534455801107574</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03737998106122301</v>
+      </c>
+      <c r="G86">
+        <v>0.03958851567530362</v>
+      </c>
+      <c r="H86">
+        <v>-0.09346883890562568</v>
+      </c>
+      <c r="I86">
+        <v>0.02289019668128267</v>
+      </c>
+      <c r="J86">
+        <v>-0.05175420110123079</v>
+      </c>
+      <c r="K86">
+        <v>-0.1528412160524355</v>
+      </c>
+      <c r="L86">
+        <v>0.417153870325665</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>0.1172011514784237</v>
+        <v>0.1227179741988226</v>
       </c>
       <c r="C87">
-        <v>-0.05670539236224464</v>
+        <v>-0.06409794045420962</v>
       </c>
       <c r="D87">
-        <v>0.05016757811407176</v>
+        <v>0.01081712484454358</v>
       </c>
       <c r="E87">
-        <v>-0.03542859806358856</v>
+        <v>-0.02908277639090903</v>
       </c>
       <c r="F87">
-        <v>0.1659571017240486</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.08589162454566464</v>
+      </c>
+      <c r="G87">
+        <v>-0.1846100282095379</v>
+      </c>
+      <c r="H87">
+        <v>-0.1379460592872009</v>
+      </c>
+      <c r="I87">
+        <v>0.06421684209379473</v>
+      </c>
+      <c r="J87">
+        <v>-0.03610395962021822</v>
+      </c>
+      <c r="K87">
+        <v>-0.00955554829552996</v>
+      </c>
+      <c r="L87">
+        <v>-0.01858047276881705</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>0.05741689369866065</v>
+        <v>0.06345035054332607</v>
       </c>
       <c r="C88">
-        <v>-0.02504576850953252</v>
+        <v>-0.04399939407847907</v>
       </c>
       <c r="D88">
-        <v>0.0323908907589486</v>
+        <v>-0.03904048781513871</v>
       </c>
       <c r="E88">
-        <v>-0.01138097466873789</v>
+        <v>-0.005136221320972021</v>
       </c>
       <c r="F88">
-        <v>0.007074077521311921</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01033976949062823</v>
+      </c>
+      <c r="G88">
+        <v>-0.02413872032916925</v>
+      </c>
+      <c r="H88">
+        <v>0.01092231464471914</v>
+      </c>
+      <c r="I88">
+        <v>-0.04079274350073981</v>
+      </c>
+      <c r="J88">
+        <v>-0.04137107133449151</v>
+      </c>
+      <c r="K88">
+        <v>-0.0302868606528102</v>
+      </c>
+      <c r="L88">
+        <v>-0.007039174637622146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>0.09669382200284365</v>
+        <v>0.1747183708742956</v>
       </c>
       <c r="C89">
-        <v>0.3182988278444586</v>
+        <v>0.3763709242815118</v>
       </c>
       <c r="D89">
-        <v>-0.09938177657331063</v>
+        <v>0.02090074016214155</v>
       </c>
       <c r="E89">
-        <v>-0.1097558654328075</v>
+        <v>-0.09513820727181449</v>
       </c>
       <c r="F89">
-        <v>0.06104687250048817</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.001833929223436454</v>
+      </c>
+      <c r="G89">
+        <v>0.0209772735014934</v>
+      </c>
+      <c r="H89">
+        <v>-0.00652133159249534</v>
+      </c>
+      <c r="I89">
+        <v>-0.06543597942212674</v>
+      </c>
+      <c r="J89">
+        <v>-0.09297000735731692</v>
+      </c>
+      <c r="K89">
+        <v>0.02984119925050987</v>
+      </c>
+      <c r="L89">
+        <v>-0.04653912232141034</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>0.0843359369543807</v>
+        <v>0.1210185444375605</v>
       </c>
       <c r="C90">
-        <v>0.270705987580627</v>
+        <v>0.2762378628304523</v>
       </c>
       <c r="D90">
-        <v>-0.09810996793268066</v>
+        <v>0.03822234950790309</v>
       </c>
       <c r="E90">
-        <v>-0.05207515501448492</v>
+        <v>-0.03759785603386487</v>
       </c>
       <c r="F90">
-        <v>0.05271659437752039</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.01810424864427355</v>
+      </c>
+      <c r="G90">
+        <v>-0.02472441755010403</v>
+      </c>
+      <c r="H90">
+        <v>-0.03659505618611289</v>
+      </c>
+      <c r="I90">
+        <v>-0.0423968232260933</v>
+      </c>
+      <c r="J90">
+        <v>-0.05306727245096999</v>
+      </c>
+      <c r="K90">
+        <v>0.01546658134369109</v>
+      </c>
+      <c r="L90">
+        <v>-0.01041519736682515</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>0.09746077843921944</v>
+        <v>0.08415081646225082</v>
       </c>
       <c r="C91">
-        <v>-0.007852052689575083</v>
+        <v>-0.04550785325956706</v>
       </c>
       <c r="D91">
-        <v>0.02894557429599862</v>
+        <v>-0.00624541217043306</v>
       </c>
       <c r="E91">
-        <v>-0.009422104638153175</v>
+        <v>0.001209347397541374</v>
       </c>
       <c r="F91">
-        <v>0.0006664482759713436</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.006969377307283329</v>
+      </c>
+      <c r="G91">
+        <v>0.01582194564435382</v>
+      </c>
+      <c r="H91">
+        <v>0.0986794815460395</v>
+      </c>
+      <c r="I91">
+        <v>0.01249506060375666</v>
+      </c>
+      <c r="J91">
+        <v>0.02590460532475261</v>
+      </c>
+      <c r="K91">
+        <v>0.04080598253938231</v>
+      </c>
+      <c r="L91">
+        <v>-0.03612290474624918</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>0.06754886698700263</v>
+        <v>0.1232463899200326</v>
       </c>
       <c r="C92">
-        <v>0.3295701515743219</v>
+        <v>0.3266999457157672</v>
       </c>
       <c r="D92">
-        <v>-0.06923080441159828</v>
+        <v>0.02625231158896275</v>
       </c>
       <c r="E92">
-        <v>-0.0866747317688502</v>
+        <v>-0.04688069511443867</v>
       </c>
       <c r="F92">
-        <v>0.02750917743220354</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.02781271301590927</v>
+      </c>
+      <c r="G92">
+        <v>0.01401000726182004</v>
+      </c>
+      <c r="H92">
+        <v>0.03818838791984185</v>
+      </c>
+      <c r="I92">
+        <v>-0.0137698653568903</v>
+      </c>
+      <c r="J92">
+        <v>-0.01868018130798708</v>
+      </c>
+      <c r="K92">
+        <v>-0.004458232820455559</v>
+      </c>
+      <c r="L92">
+        <v>0.00258204635877951</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>0.06957006979433883</v>
+        <v>0.1271233107512759</v>
       </c>
       <c r="C93">
-        <v>0.2760653044696585</v>
+        <v>0.3082063955196259</v>
       </c>
       <c r="D93">
-        <v>-0.06257552967623839</v>
+        <v>0.01199257016124588</v>
       </c>
       <c r="E93">
-        <v>-0.04907806458304832</v>
+        <v>-0.02161268119351985</v>
       </c>
       <c r="F93">
-        <v>0.03981657997051196</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.00310971761864851</v>
+      </c>
+      <c r="G93">
+        <v>0.003507273742897532</v>
+      </c>
+      <c r="H93">
+        <v>-0.01295281226713396</v>
+      </c>
+      <c r="I93">
+        <v>0.003656285688757494</v>
+      </c>
+      <c r="J93">
+        <v>0.002471861939610588</v>
+      </c>
+      <c r="K93">
+        <v>-0.03704970415212378</v>
+      </c>
+      <c r="L93">
+        <v>-0.0006035117467311043</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>0.1194887901737997</v>
+        <v>0.1163603543301239</v>
       </c>
       <c r="C94">
-        <v>-0.04754218633184767</v>
+        <v>-0.06820057283558288</v>
       </c>
       <c r="D94">
-        <v>0.03947269453094539</v>
+        <v>-0.01169987886293633</v>
       </c>
       <c r="E94">
-        <v>-0.03402013353599968</v>
+        <v>-0.02492981909816571</v>
       </c>
       <c r="F94">
-        <v>-0.002104103191694407</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.0006156235049164812</v>
+      </c>
+      <c r="G94">
+        <v>0.04002489630142141</v>
+      </c>
+      <c r="H94">
+        <v>0.1358681286493916</v>
+      </c>
+      <c r="I94">
+        <v>-0.0006817384007554241</v>
+      </c>
+      <c r="J94">
+        <v>0.02728686062763457</v>
+      </c>
+      <c r="K94">
+        <v>0.03207944850864302</v>
+      </c>
+      <c r="L94">
+        <v>-0.02012822922072624</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>0.1198995494918464</v>
+        <v>0.1361644131450833</v>
       </c>
       <c r="C95">
-        <v>-0.08762431589456794</v>
+        <v>-0.06223495691081293</v>
       </c>
       <c r="D95">
-        <v>0.09847918225700963</v>
+        <v>-0.03258535390894279</v>
       </c>
       <c r="E95">
-        <v>-0.07900797023924987</v>
+        <v>-0.05630026591486608</v>
       </c>
       <c r="F95">
-        <v>-0.0296347746989371</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.07690458370016327</v>
+      </c>
+      <c r="G95">
+        <v>-0.009500068042511543</v>
+      </c>
+      <c r="H95">
+        <v>-0.1768708000088761</v>
+      </c>
+      <c r="I95">
+        <v>-0.06284053922428401</v>
+      </c>
+      <c r="J95">
+        <v>-0.02322543282485533</v>
+      </c>
+      <c r="K95">
+        <v>0.007116076771481894</v>
+      </c>
+      <c r="L95">
+        <v>0.07728898052905979</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4345,142 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>0.2529287101452202</v>
+        <v>0.1853939416321814</v>
       </c>
       <c r="C97">
-        <v>0.1493706817092798</v>
+        <v>0.01798087722204782</v>
       </c>
       <c r="D97">
-        <v>0.04907564299701674</v>
+        <v>0.288444983990695</v>
       </c>
       <c r="E97">
-        <v>0.8863345422145564</v>
+        <v>0.8939203881065394</v>
       </c>
       <c r="F97">
-        <v>0.01539771735968625</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.02900271656802847</v>
+      </c>
+      <c r="G97">
+        <v>-0.03350053856190778</v>
+      </c>
+      <c r="H97">
+        <v>-0.07033473652527562</v>
+      </c>
+      <c r="I97">
+        <v>-0.03490883237773248</v>
+      </c>
+      <c r="J97">
+        <v>-0.06868423849173724</v>
+      </c>
+      <c r="K97">
+        <v>0.04801694328154762</v>
+      </c>
+      <c r="L97">
+        <v>-0.01134471918573665</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>0.2855283732724093</v>
+        <v>0.2785573120580104</v>
       </c>
       <c r="C98">
-        <v>-0.06776285480127357</v>
+        <v>-0.1085372576243996</v>
       </c>
       <c r="D98">
-        <v>0.01566266934256888</v>
+        <v>-0.1373463436401617</v>
       </c>
       <c r="E98">
-        <v>-0.08530616788268221</v>
+        <v>0.04867917627397086</v>
       </c>
       <c r="F98">
-        <v>-0.4903918435276289</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2573167053322946</v>
+      </c>
+      <c r="G98">
+        <v>0.3256539676944998</v>
+      </c>
+      <c r="H98">
+        <v>-0.2208913290094924</v>
+      </c>
+      <c r="I98">
+        <v>0.1933600394425924</v>
+      </c>
+      <c r="J98">
+        <v>0.08697529403118676</v>
+      </c>
+      <c r="K98">
+        <v>-0.5556992449220949</v>
+      </c>
+      <c r="L98">
+        <v>-0.3015891338926847</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0.2716093433569696</v>
+        <v>0.1590406261470992</v>
       </c>
       <c r="C99">
-        <v>-0.2720308370190096</v>
+        <v>-0.1334524645113961</v>
       </c>
       <c r="D99">
-        <v>-0.8492176564360362</v>
+        <v>0.5296381815975524</v>
       </c>
       <c r="E99">
-        <v>0.03219683545782791</v>
+        <v>-0.179526712858954</v>
       </c>
       <c r="F99">
-        <v>-0.16303364395764</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.6961441766235139</v>
+      </c>
+      <c r="G99">
+        <v>-0.01503710409156941</v>
+      </c>
+      <c r="H99">
+        <v>0.1108411531436316</v>
+      </c>
+      <c r="I99">
+        <v>-0.06918992094642233</v>
+      </c>
+      <c r="J99">
+        <v>0.04646601529561224</v>
+      </c>
+      <c r="K99">
+        <v>0.00590648224849542</v>
+      </c>
+      <c r="L99">
+        <v>0.1589010890815329</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,30 +4497,66 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>0.05605986220614451</v>
+        <v>0.05155993948690719</v>
       </c>
       <c r="C101">
-        <v>0.0005253780325093527</v>
+        <v>-0.01770385078727738</v>
       </c>
       <c r="D101">
-        <v>0.02799865345228416</v>
+        <v>-0.008818716899715607</v>
       </c>
       <c r="E101">
-        <v>-0.01873749264850011</v>
+        <v>-0.02028814086755519</v>
       </c>
       <c r="F101">
-        <v>0.03522543075633208</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.0374812616756631</v>
+      </c>
+      <c r="G101">
+        <v>-0.03960330755962315</v>
+      </c>
+      <c r="H101">
+        <v>0.04742851032990705</v>
+      </c>
+      <c r="I101">
+        <v>-0.04510706516146451</v>
+      </c>
+      <c r="J101">
+        <v>0.008548857105819815</v>
+      </c>
+      <c r="K101">
+        <v>-0.03819857142299433</v>
+      </c>
+      <c r="L101">
+        <v>0.01471559073699315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2737,10 +4573,28 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4611,28 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4647,24 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
